--- a/excel_menu_gui/templates/Бракеражный журнал шаблон.xlsx
+++ b/excel_menu_gui/templates/Бракеражный журнал шаблон.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F64813-F160-4D5A-8888-4729ACAA199D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4094FDD4-B17C-4436-BD73-77E328A63269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,7 +332,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -393,6 +393,19 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -678,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA6EA83-BE38-4309-BC11-752258FCE8D0}">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G34"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1592,13 +1605,13 @@
       <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="16">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C44" s="16">
+      <c r="B44" s="24">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C44" s="24">
         <v>0.33333333333333298</v>
       </c>
       <c r="D44" s="7"/>
@@ -1612,13 +1625,13 @@
       <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="16">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C45" s="16">
+      <c r="B45" s="24">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C45" s="24">
         <v>0.33333333333333298</v>
       </c>
       <c r="D45" s="7"/>
@@ -1632,13 +1645,13 @@
       <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="16">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C46" s="16">
+      <c r="B46" s="24">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C46" s="24">
         <v>0.33333333333333298</v>
       </c>
       <c r="D46" s="7"/>
@@ -1652,13 +1665,13 @@
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="16">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C47" s="16">
+      <c r="B47" s="24">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C47" s="24">
         <v>0.33333333333333298</v>
       </c>
       <c r="D47" s="11"/>
@@ -1672,11 +1685,11 @@
       <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
@@ -1688,11 +1701,11 @@
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="8"/>
@@ -1704,11 +1717,11 @@
       <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="8"/>
@@ -1720,11 +1733,11 @@
       <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="8"/>
@@ -1736,11 +1749,11 @@
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="8"/>
@@ -1752,11 +1765,11 @@
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="8"/>
@@ -1768,11 +1781,11 @@
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="8"/>
@@ -1784,11 +1797,11 @@
       <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="8"/>
@@ -1800,11 +1813,11 @@
       <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="8"/>
@@ -1830,6 +1843,7 @@
       <c r="L57" s="7"/>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="G3:L3"/>
